--- a/Datos/Anuario2024/120303_CaracteristicasMar.xlsx
+++ b/Datos/Anuario2024/120303_CaracteristicasMar.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10125" tabRatio="748" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10125" tabRatio="748"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="6" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="7" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="8" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="0" sheetId="6" r:id="rId1"/>
+    <sheet name="1" sheetId="88" r:id="rId2"/>
+    <sheet name="2" sheetId="50" r:id="rId3"/>
+    <sheet name="3" sheetId="86" r:id="rId4"/>
+    <sheet name="4" sheetId="87" r:id="rId5"/>
+    <sheet name="5" sheetId="89" r:id="rId6"/>
+    <sheet name="6" sheetId="90" r:id="rId7"/>
+    <sheet name="7" sheetId="91" r:id="rId8"/>
+    <sheet name="8" sheetId="92" r:id="rId9"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId10"/>
@@ -61,90 +67,296 @@
     <definedName name="_R6_2">#REF!</definedName>
     <definedName name="_R6_5">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="67">
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>Temperatura</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Día</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
+  <si>
+    <t>Latitud</t>
+  </si>
+  <si>
+    <t>Cadencia</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Profundidad</t>
+  </si>
+  <si>
+    <t>Inicio de medidas</t>
+  </si>
+  <si>
+    <t>Tipo de sensor</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>39,51º N</t>
+  </si>
+  <si>
+    <t>0,20º E</t>
+  </si>
+  <si>
+    <t>60 min</t>
+  </si>
+  <si>
+    <t>260 m</t>
+  </si>
+  <si>
+    <t>Direccional Met-Oce</t>
+  </si>
+  <si>
+    <t>SeaWatch</t>
+  </si>
+  <si>
+    <t>3. Máximos por mes histórico</t>
+  </si>
+  <si>
+    <t>Nota: La temperatura se expresa en grados centígrados. Todas las fechas que aparecen utilizan la referencia horario del Tiempo Universal (UTC),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuyo meridiano origen sería el de Greenwich, de manera que para conocer la hora local a la que se refiere un dato, habrá que sumar 1 hora a la </t>
+  </si>
+  <si>
+    <t>4. Mínimos por mes histórico</t>
+  </si>
+  <si>
+    <t>Dirº</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota: La velocidad media de corriente s'expressa en metros por segundo. Los ángulos representan direcciones de propagación de la corriente. </t>
+  </si>
+  <si>
+    <t>El criterio de direcciones es N = 0, E = 90, S = 180, W = 270. Todas las fechas que aparecen utilizan la referencia horario del Tiempo Universal (UTC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuyo meridiano origen sería el de Greenwich, de manera que para conocer la hora local a la que se refiere un dato, habrá que sumar 1 hora a la hora </t>
+  </si>
+  <si>
+    <t>Velocidad media</t>
+  </si>
+  <si>
+    <t>Altura significante (Hs)</t>
+  </si>
+  <si>
+    <t>Periodo de Pico (Tp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota: La altura significante s'expressa en metros y el periodo de pico en segundos. Los ángulos representan direcciones de propagación del oleaje. </t>
+  </si>
+  <si>
+    <t>ESTADO DEL MAR</t>
+  </si>
+  <si>
+    <t>Fuente: Puertos del Estado. Ministerio de Transporte, Movilidad y Agenda Urbana.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1. Características Boya de València. 2023</t>
+  </si>
+  <si>
+    <t>2. Temperatura del agua a la Boya de València. 2023</t>
+  </si>
+  <si>
+    <t>Nota: La salinidad se mide en unidades prácticas de salinidad (psu). Los datos posteriores a 01-11-2023 son provisionales.</t>
+  </si>
+  <si>
+    <t>Nota: La temperatura se expresa en grados centígrados. Los datos posteriores a 01-11-2023 son provisionales.</t>
+  </si>
+  <si>
+    <t>mostrada si estamos en invierno y 2 horas si estamos en horario de verano. Los datos posteriores a 01-11-2023 son provisionales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hora mostrada si estamos en invierno y 2 horas si estamos en horario de verano. Los datos posteriores a 01-11-2023 son provisionales. *Primera fecha donde se alcanza esta temperatura. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hora mostrada si estamos en invierno y 2 horas si estamos en horario de verano. Los datos posteriores a 01-11-2023 son provisionales. *Primera fecha donde se alcanza esta temperatura.</t>
+  </si>
+  <si>
+    <t>Fecha Máximo (*)</t>
+  </si>
+  <si>
+    <t>Fecha Mínimo (*)</t>
+  </si>
+  <si>
+    <t>5. Salinidad en la Boya de València. 2023</t>
+  </si>
+  <si>
+    <t>6. Temperatura del aire a la Boya de València. 2023</t>
+  </si>
+  <si>
+    <t>7. Velocidad media de corriente. Máxima por meses. Boya de València. 2023</t>
+  </si>
+  <si>
+    <t>8. Altura de ola significante. Máxima por meses. Boya de València. 2023</t>
+  </si>
+  <si>
+    <t>mostrada si estamos en invierno y 2 horas si estamos en horario de verano.  Los datos posteriores a 01-11-2023 son provisionales. *Primera fecha donde se alcanza esta altura.</t>
+  </si>
+  <si>
+    <t>24/08</t>
+  </si>
+  <si>
+    <t>16/02</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -173,109 +385,103 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Normal 6" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -345,12 +551,20 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -2194,835 +2408,725 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja14">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:DO154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="23.7109375" customWidth="1" min="1" max="1"/>
-    <col width="11.42578125" customWidth="1" style="1" min="4" max="119"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="4" max="119" width="11.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>ESTADO DEL MAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" customFormat="1" s="1"/>
-    <row r="3" customFormat="1" s="1"/>
-    <row r="4" customFormat="1" s="1"/>
-    <row r="5" customFormat="1" s="1"/>
-    <row r="6" customFormat="1" s="1"/>
-    <row r="7" customFormat="1" s="1"/>
-    <row r="8" customFormat="1" s="1"/>
-    <row r="9" customFormat="1" s="1"/>
-    <row r="10" customFormat="1" s="1"/>
-    <row r="11" customFormat="1" s="1"/>
-    <row r="12" customFormat="1" s="1"/>
-    <row r="13" customFormat="1" s="1"/>
-    <row r="14" customFormat="1" s="1"/>
-    <row r="15" customFormat="1" s="1"/>
-    <row r="16" customFormat="1" s="1"/>
-    <row r="17" customFormat="1" s="1"/>
-    <row r="18" customFormat="1" s="1"/>
-    <row r="19" customFormat="1" s="1"/>
-    <row r="20" customFormat="1" s="1"/>
-    <row r="21" customFormat="1" s="1"/>
-    <row r="22" customFormat="1" s="1"/>
-    <row r="23" customFormat="1" s="1"/>
-    <row r="24" customFormat="1" s="1"/>
-    <row r="25" customFormat="1" s="1"/>
-    <row r="26" customFormat="1" s="1"/>
-    <row r="27" customFormat="1" s="1"/>
-    <row r="28" customFormat="1" s="1"/>
-    <row r="29" customFormat="1" s="1"/>
-    <row r="30" customFormat="1" s="1"/>
-    <row r="31" customFormat="1" s="1"/>
-    <row r="32" customFormat="1" s="1"/>
-    <row r="33" customFormat="1" s="1"/>
-    <row r="34" customFormat="1" s="1"/>
-    <row r="35" customFormat="1" s="1"/>
-    <row r="36" customFormat="1" s="1"/>
-    <row r="37" customFormat="1" s="1"/>
-    <row r="38" customFormat="1" s="1"/>
-    <row r="39" customFormat="1" s="1"/>
-    <row r="40" customFormat="1" s="1"/>
-    <row r="41" customFormat="1" s="1"/>
-    <row r="42" customFormat="1" s="1"/>
-    <row r="43" customFormat="1" s="1"/>
-    <row r="44" customFormat="1" s="1"/>
-    <row r="45" customFormat="1" s="1"/>
-    <row r="46" customFormat="1" s="1"/>
-    <row r="47" customFormat="1" s="1"/>
-    <row r="48" customFormat="1" s="1"/>
-    <row r="49" customFormat="1" s="1"/>
-    <row r="50" customFormat="1" s="1"/>
-    <row r="51" customFormat="1" s="1"/>
-    <row r="52" customFormat="1" s="1"/>
-    <row r="53" customFormat="1" s="1"/>
-    <row r="54" customFormat="1" s="1"/>
-    <row r="55" customFormat="1" s="1"/>
-    <row r="56" customFormat="1" s="1"/>
-    <row r="57" customFormat="1" s="1"/>
-    <row r="58" customFormat="1" s="1"/>
-    <row r="59" customFormat="1" s="1"/>
-    <row r="60" customFormat="1" s="1"/>
-    <row r="61" customFormat="1" s="1"/>
-    <row r="62" customFormat="1" s="1"/>
-    <row r="63" customFormat="1" s="1"/>
-    <row r="64" customFormat="1" s="1"/>
-    <row r="65" customFormat="1" s="1"/>
-    <row r="66" customFormat="1" s="1"/>
-    <row r="67" customFormat="1" s="1"/>
-    <row r="68" customFormat="1" s="1"/>
-    <row r="69" customFormat="1" s="1"/>
-    <row r="70" customFormat="1" s="1"/>
-    <row r="71" customFormat="1" s="1"/>
-    <row r="72" customFormat="1" s="1"/>
-    <row r="73" customFormat="1" s="1"/>
-    <row r="74" customFormat="1" s="1"/>
-    <row r="75" customFormat="1" s="1"/>
-    <row r="76" customFormat="1" s="1"/>
-    <row r="77" customFormat="1" s="1"/>
-    <row r="78" customFormat="1" s="1"/>
-    <row r="79" customFormat="1" s="1"/>
-    <row r="80" customFormat="1" s="1"/>
-    <row r="81" customFormat="1" s="1"/>
-    <row r="82" customFormat="1" s="1"/>
-    <row r="83" customFormat="1" s="1"/>
-    <row r="84" customFormat="1" s="1"/>
-    <row r="85" customFormat="1" s="1"/>
-    <row r="86" customFormat="1" s="1"/>
-    <row r="87" customFormat="1" s="1"/>
-    <row r="88" customFormat="1" s="1"/>
-    <row r="89" customFormat="1" s="1"/>
-    <row r="90" customFormat="1" s="1"/>
-    <row r="91" customFormat="1" s="1"/>
-    <row r="92" customFormat="1" s="1"/>
-    <row r="93" customFormat="1" s="1"/>
-    <row r="94" customFormat="1" s="1"/>
-    <row r="95" customFormat="1" s="1"/>
-    <row r="96" customFormat="1" s="1"/>
-    <row r="97" customFormat="1" s="1"/>
-    <row r="98" customFormat="1" s="1"/>
-    <row r="99" customFormat="1" s="1"/>
-    <row r="100" customFormat="1" s="1"/>
-    <row r="101" customFormat="1" s="1"/>
-    <row r="102" customFormat="1" s="1"/>
-    <row r="103" customFormat="1" s="1"/>
-    <row r="104" customFormat="1" s="1"/>
-    <row r="105" customFormat="1" s="1"/>
-    <row r="106" customFormat="1" s="1"/>
-    <row r="107" customFormat="1" s="1"/>
-    <row r="108" customFormat="1" s="1"/>
-    <row r="109" customFormat="1" s="1"/>
-    <row r="110" customFormat="1" s="1"/>
-    <row r="111" customFormat="1" s="1"/>
-    <row r="112" customFormat="1" s="1"/>
-    <row r="113" customFormat="1" s="1"/>
-    <row r="114" customFormat="1" s="1"/>
-    <row r="115" customFormat="1" s="1"/>
-    <row r="116" customFormat="1" s="1"/>
-    <row r="117" customFormat="1" s="1"/>
-    <row r="118" customFormat="1" s="1"/>
-    <row r="119" customFormat="1" s="1"/>
-    <row r="120" customFormat="1" s="1"/>
-    <row r="121" customFormat="1" s="1"/>
-    <row r="122" customFormat="1" s="1"/>
-    <row r="123" customFormat="1" s="1"/>
-    <row r="124" customFormat="1" s="1"/>
-    <row r="125" customFormat="1" s="1"/>
-    <row r="126" customFormat="1" s="1"/>
-    <row r="127" customFormat="1" s="1"/>
-    <row r="128" customFormat="1" s="1"/>
-    <row r="129" customFormat="1" s="1"/>
-    <row r="130" customFormat="1" s="1"/>
-    <row r="131" customFormat="1" s="1"/>
-    <row r="132" customFormat="1" s="1"/>
-    <row r="133" customFormat="1" s="1"/>
-    <row r="134" customFormat="1" s="1"/>
-    <row r="135" customFormat="1" s="1"/>
-    <row r="136" customFormat="1" s="1"/>
-    <row r="137" customFormat="1" s="1"/>
-    <row r="138" customFormat="1" s="1"/>
-    <row r="139" customFormat="1" s="1"/>
-    <row r="140" customFormat="1" s="1"/>
-    <row r="141" customFormat="1" s="1"/>
-    <row r="142" customFormat="1" s="1"/>
-    <row r="143" customFormat="1" s="1"/>
-    <row r="144" customFormat="1" s="1"/>
-    <row r="145" customFormat="1" s="1"/>
-    <row r="146" customFormat="1" s="1"/>
-    <row r="147" customFormat="1" s="1"/>
-    <row r="148" customFormat="1" s="1"/>
-    <row r="149" customFormat="1" s="1"/>
-    <row r="150" customFormat="1" s="1"/>
-    <row r="151" customFormat="1" s="1"/>
-    <row r="152" customFormat="1" s="1"/>
-    <row r="153" customFormat="1" s="1"/>
-    <row r="154" customFormat="1" s="1"/>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="17.7109375" customWidth="1" min="1" max="2"/>
+    <col min="1" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>1. Características Boya de València. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="n"/>
-      <c r="B2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="12" t="n"/>
-      <c r="B3" s="7" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>Longitud</t>
-        </is>
-      </c>
-      <c r="B4" s="14" t="inlineStr">
-        <is>
-          <t>0,20º E</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="17" t="inlineStr">
-        <is>
-          <t>Latitud</t>
-        </is>
-      </c>
-      <c r="B5" s="13" t="inlineStr">
-        <is>
-          <t>39,51º N</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="18" t="inlineStr">
-        <is>
-          <t>Cadencia</t>
-        </is>
-      </c>
-      <c r="B6" s="14" t="inlineStr">
-        <is>
-          <t>60 min</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="17" t="inlineStr">
-        <is>
-          <t>Código</t>
-        </is>
-      </c>
-      <c r="B7" s="20" t="n">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="20">
         <v>2630</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="18" t="inlineStr">
-        <is>
-          <t>Profundidad</t>
-        </is>
-      </c>
-      <c r="B8" s="14" t="inlineStr">
-        <is>
-          <t>260 m</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="17" t="inlineStr">
-        <is>
-          <t>Inicio de medidas</t>
-        </is>
-      </c>
-      <c r="B9" s="21" t="n">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="21">
         <v>38610</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="18" t="inlineStr">
-        <is>
-          <t>Tipo de sensor</t>
-        </is>
-      </c>
-      <c r="B10" s="14" t="inlineStr">
-        <is>
-          <t>Direccional Met-Oce</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="17" t="inlineStr">
-        <is>
-          <t>Modelo</t>
-        </is>
-      </c>
-      <c r="B11" s="13" t="inlineStr">
-        <is>
-          <t>SeaWatch</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Fuente: Puertos del Estado. Ministerio de Transporte, Movilidad y Agenda Urbana.</t>
-        </is>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja16">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="15.7109375" customWidth="1" min="1" max="1"/>
-    <col width="9.7109375" customWidth="1" min="2" max="8"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="8" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>2. Temperatura del agua a la Boya de València. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-      <c r="E1" s="5" t="n"/>
-      <c r="F1" s="5" t="n"/>
-      <c r="G1" s="5" t="n"/>
-      <c r="H1" s="5" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="n"/>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="5" t="n"/>
-      <c r="D2" s="5" t="n"/>
-      <c r="E2" s="5" t="n"/>
-      <c r="F2" s="5" t="n"/>
-      <c r="G2" s="5" t="n"/>
-      <c r="H2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="12" t="n"/>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>Máximo</t>
-        </is>
-      </c>
-      <c r="D3" s="33" t="inlineStr">
-        <is>
-          <t>Fecha Máximo (*)</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="inlineStr">
-        <is>
-          <t>Mínimo</t>
-        </is>
-      </c>
-      <c r="G3" s="33" t="inlineStr">
-        <is>
-          <t>Fecha Mínimo (*)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="12" t="n"/>
-      <c r="B4" s="7" t="n"/>
-      <c r="C4" s="9" t="n"/>
-      <c r="D4" s="9" t="inlineStr">
-        <is>
-          <t>Día</t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t>Hora</t>
-        </is>
-      </c>
-      <c r="F4" s="9" t="n"/>
-      <c r="G4" s="9" t="inlineStr">
-        <is>
-          <t>Día</t>
-        </is>
-      </c>
-      <c r="H4" s="9" t="inlineStr">
-        <is>
-          <t>Hora</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="24" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B5" s="15" t="n">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="33"/>
+    </row>
+    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15">
         <v>20.63965</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="15">
         <v>29.47</v>
       </c>
-      <c r="D5" s="32" t="inlineStr">
-        <is>
-          <t>24/08</t>
-        </is>
-      </c>
-      <c r="E5" s="16" t="n">
+      <c r="D5" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="16">
         <v>15</v>
       </c>
-      <c r="F5" s="15" t="n">
+      <c r="F5" s="15">
         <v>13.7</v>
       </c>
-      <c r="G5" s="32" t="inlineStr">
-        <is>
-          <t>16/02</t>
-        </is>
-      </c>
-      <c r="H5" s="16" t="n">
+      <c r="G5" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="22" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
-      </c>
-      <c r="B6" s="13" t="n">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13">
         <v>15.2836424731183</v>
       </c>
-      <c r="C6" s="25" t="n">
+      <c r="C6" s="25">
         <v>16.2</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="11">
         <v>2</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="11">
         <v>4</v>
       </c>
-      <c r="F6" s="25" t="n">
+      <c r="F6" s="25">
         <v>14.13</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="11">
         <v>30</v>
       </c>
-      <c r="H6" s="11" t="n">
+      <c r="H6" s="11">
         <v>7</v>
       </c>
-      <c r="J6" s="29" t="n"/>
-      <c r="K6" s="29" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="23" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="B7" s="14" t="n">
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14">
         <v>14.0217380352645</v>
       </c>
-      <c r="C7" s="14" t="n">
+      <c r="C7" s="14">
         <v>14.61</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="10">
         <v>3</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="10">
         <v>17</v>
       </c>
-      <c r="F7" s="14" t="n">
+      <c r="F7" s="14">
         <v>13.7</v>
       </c>
-      <c r="G7" s="10" t="n">
+      <c r="G7" s="10">
         <v>16</v>
       </c>
-      <c r="H7" s="10" t="n">
+      <c r="H7" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="22" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="B8" s="13" t="n">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13">
         <v>15.5472588832487</v>
       </c>
-      <c r="C8" s="25" t="n">
+      <c r="C8" s="25">
         <v>16</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="11">
         <v>30</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="11">
         <v>21</v>
       </c>
-      <c r="F8" s="25" t="n">
+      <c r="F8" s="25">
         <v>15.17</v>
       </c>
-      <c r="G8" s="11" t="n">
+      <c r="G8" s="11">
         <v>24</v>
       </c>
-      <c r="H8" s="11" t="n">
+      <c r="H8" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="23" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="B9" s="14" t="n">
-        <v>16.5635833333333</v>
-      </c>
-      <c r="C9" s="14" t="n">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14">
+        <v>16.563583333333298</v>
+      </c>
+      <c r="C9" s="14">
         <v>19.13</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="10">
         <v>30</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="10">
         <v>16</v>
       </c>
-      <c r="F9" s="14" t="n">
+      <c r="F9" s="14">
         <v>15.2</v>
       </c>
-      <c r="G9" s="10" t="n">
+      <c r="G9" s="10">
         <v>2</v>
       </c>
-      <c r="H9" s="10" t="n">
+      <c r="H9" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="22" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
-      </c>
-      <c r="B10" s="13" t="n">
-        <v>19.5693279569892</v>
-      </c>
-      <c r="C10" s="25" t="n">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13">
+        <v>19.569327956989198</v>
+      </c>
+      <c r="C10" s="25">
         <v>21.46</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="11">
         <v>31</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="11">
         <v>17</v>
       </c>
-      <c r="F10" s="25" t="n">
+      <c r="F10" s="25">
         <v>18.39</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="11">
         <v>1</v>
       </c>
-      <c r="H10" s="11" t="n">
+      <c r="H10" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="23" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="B11" s="14" t="n">
-        <v>23.3238888888889</v>
-      </c>
-      <c r="C11" s="14" t="n">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14">
+        <v>23.323888888888899</v>
+      </c>
+      <c r="C11" s="14">
         <v>26.22</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="10">
         <v>29</v>
       </c>
-      <c r="E11" s="10" t="n">
+      <c r="E11" s="10">
         <v>17</v>
       </c>
-      <c r="F11" s="14" t="n">
+      <c r="F11" s="14">
         <v>21.04</v>
       </c>
-      <c r="G11" s="10" t="n">
+      <c r="G11" s="10">
         <v>1</v>
       </c>
-      <c r="H11" s="10" t="n">
+      <c r="H11" s="10">
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="22" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="B12" s="13" t="n">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="13">
         <v>27.3978734858681</v>
       </c>
-      <c r="C12" s="25" t="n">
+      <c r="C12" s="25">
         <v>28.88</v>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D12" s="11">
         <v>31</v>
       </c>
-      <c r="E12" s="11" t="n">
+      <c r="E12" s="11">
         <v>14</v>
       </c>
-      <c r="F12" s="25" t="n">
+      <c r="F12" s="25">
         <v>24.94</v>
       </c>
-      <c r="G12" s="11" t="n">
+      <c r="G12" s="11">
         <v>1</v>
       </c>
-      <c r="H12" s="11" t="n">
+      <c r="H12" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="23" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
-      </c>
-      <c r="B13" s="14" t="n">
-        <v>27.7329569892473</v>
-      </c>
-      <c r="C13" s="14" t="n">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="14">
+        <v>27.732956989247299</v>
+      </c>
+      <c r="C13" s="14">
         <v>29.47</v>
       </c>
-      <c r="D13" s="10" t="n">
+      <c r="D13" s="10">
         <v>24</v>
       </c>
-      <c r="E13" s="10" t="n">
+      <c r="E13" s="10">
         <v>15</v>
       </c>
-      <c r="F13" s="14" t="n">
+      <c r="F13" s="14">
         <v>26.11</v>
       </c>
-      <c r="G13" s="10" t="n">
+      <c r="G13" s="10">
         <v>31</v>
       </c>
-      <c r="H13" s="10" t="n">
+      <c r="H13" s="10">
         <v>22</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="22" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
-      </c>
-      <c r="B14" s="13" t="n">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="13">
         <v>26.0392222222222</v>
       </c>
-      <c r="C14" s="25" t="n">
+      <c r="C14" s="25">
         <v>27.53</v>
       </c>
-      <c r="D14" s="11" t="n">
+      <c r="D14" s="11">
         <v>9</v>
       </c>
-      <c r="E14" s="11" t="n">
+      <c r="E14" s="11">
         <v>16</v>
       </c>
-      <c r="F14" s="25" t="n">
+      <c r="F14" s="25">
         <v>24.96</v>
       </c>
-      <c r="G14" s="11" t="n">
+      <c r="G14" s="11">
         <v>23</v>
       </c>
-      <c r="H14" s="11" t="n">
+      <c r="H14" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="23" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
-      </c>
-      <c r="B15" s="14" t="n">
-        <v>23.1274462365591</v>
-      </c>
-      <c r="C15" s="14" t="n">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="14">
+        <v>23.127446236559098</v>
+      </c>
+      <c r="C15" s="14">
         <v>25.73</v>
       </c>
-      <c r="D15" s="10" t="n">
+      <c r="D15" s="10">
         <v>3</v>
       </c>
-      <c r="E15" s="10" t="n">
+      <c r="E15" s="10">
         <v>20</v>
       </c>
-      <c r="F15" s="14" t="n">
+      <c r="F15" s="14">
         <v>17.22</v>
       </c>
-      <c r="G15" s="10" t="n">
+      <c r="G15" s="10">
         <v>31</v>
       </c>
-      <c r="H15" s="10" t="n">
+      <c r="H15" s="10">
         <v>18</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="22" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="B16" s="13" t="n">
-        <v>17.1934722222222</v>
-      </c>
-      <c r="C16" s="25" t="n">
-        <v>18.49</v>
-      </c>
-      <c r="D16" s="11" t="n">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="13">
+        <v>17.193472222222201</v>
+      </c>
+      <c r="C16" s="25">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="D16" s="11">
         <v>22</v>
       </c>
-      <c r="E16" s="11" t="n">
+      <c r="E16" s="11">
         <v>14</v>
       </c>
-      <c r="F16" s="25" t="n">
+      <c r="F16" s="25">
         <v>15.43</v>
       </c>
-      <c r="G16" s="11" t="n">
+      <c r="G16" s="11">
         <v>30</v>
       </c>
-      <c r="H16" s="11" t="n">
+      <c r="H16" s="11">
         <v>21</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="23" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
-      </c>
-      <c r="B17" s="14" t="n">
-        <v>15.072002688172</v>
-      </c>
-      <c r="C17" s="14" t="n">
-        <v>16.42</v>
-      </c>
-      <c r="D17" s="10" t="n">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="14">
+        <v>15.072002688172001</v>
+      </c>
+      <c r="C17" s="14">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="D17" s="10">
         <v>1</v>
       </c>
-      <c r="E17" s="10" t="n">
+      <c r="E17" s="10">
         <v>13</v>
       </c>
-      <c r="F17" s="14" t="n">
+      <c r="F17" s="14">
         <v>14.5</v>
       </c>
-      <c r="G17" s="10" t="n">
+      <c r="G17" s="10">
         <v>26</v>
       </c>
-      <c r="H17" s="10" t="n">
+      <c r="H17" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="34" t="inlineStr">
-        <is>
-          <t>Nota: La temperatura se expresa en grados centígrados. Todas las fechas que aparecen utilizan la referencia horario del Tiempo Universal (UTC),</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cuyo meridiano origen sería el de Greenwich, de manera que para conocer la hora local a la que se refiere un dato, habrá que sumar 1 hora a la </t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> hora mostrada si estamos en invierno y 2 horas si estamos en horario de verano. Los datos posteriores a 01-11-2023 son provisionales. *Primera fecha donde se alcanza esta temperatura.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="inlineStr">
-        <is>
-          <t>Fuente: Puertos del Estado. Ministerio de Transporte, Movilidad y Agenda Urbana.</t>
-        </is>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3030,2061 +3134,1707 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G3:H3"/>
   </mergeCells>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="82" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="82" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="15.7109375" customWidth="1" min="1" max="1"/>
-    <col width="12" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="6.140625" customWidth="1" min="3" max="3"/>
-    <col width="4.7109375" customWidth="1" min="4" max="4"/>
-    <col width="7" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="3.85546875" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>3. Máximos por mes histórico</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="n"/>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="5" t="n"/>
-      <c r="D2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>Mes</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Temperatura</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>Año</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>Día</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>Hora</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
-      </c>
-      <c r="B4" s="14" t="n">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="14">
         <v>17.09</v>
       </c>
-      <c r="C4" s="19" t="n">
+      <c r="C4" s="19">
         <v>2016</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="10">
         <v>13</v>
       </c>
-      <c r="F4" s="10" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="B5" s="25" t="n">
+      <c r="F4" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="25">
         <v>15.73</v>
       </c>
-      <c r="C5" s="20" t="n">
+      <c r="C5" s="20">
         <v>2016</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="11">
         <v>3</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="11">
         <v>16</v>
       </c>
-      <c r="F5" s="11" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="B6" s="14" t="n">
+      <c r="F5" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14">
         <v>16</v>
       </c>
-      <c r="C6" s="19" t="n">
+      <c r="C6" s="19">
         <v>2023</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="10">
         <v>30</v>
       </c>
-      <c r="E6" s="10" t="n">
+      <c r="E6" s="10">
         <v>21</v>
       </c>
-      <c r="F6" s="10" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="B7" s="25" t="n">
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="25">
         <v>19.13</v>
       </c>
-      <c r="C7" s="20" t="n">
+      <c r="C7" s="20">
         <v>2023</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="11">
         <v>30</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="11">
         <v>16</v>
       </c>
-      <c r="F7" s="11" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
-      </c>
-      <c r="B8" s="14" t="n">
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
         <v>22.5</v>
       </c>
-      <c r="C8" s="19" t="n">
+      <c r="C8" s="19">
         <v>2011</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="10">
         <v>31</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="10">
         <v>19</v>
       </c>
-      <c r="F8" s="10" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="B9" s="25" t="n">
+      <c r="F8" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="25">
         <v>26.89</v>
       </c>
-      <c r="C9" s="20" t="n">
+      <c r="C9" s="20">
         <v>2022</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="11">
         <v>20</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="11">
         <v>15</v>
       </c>
-      <c r="F9" s="11" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="B10" s="14" t="n">
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14">
         <v>28.88</v>
       </c>
-      <c r="C10" s="19" t="n">
+      <c r="C10" s="19">
         <v>2023</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="10">
         <v>31</v>
       </c>
-      <c r="E10" s="10" t="n">
+      <c r="E10" s="10">
         <v>14</v>
       </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
-      </c>
-      <c r="B11" s="25" t="n">
+      <c r="F10" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25">
         <v>29.94</v>
       </c>
-      <c r="C11" s="20" t="n">
+      <c r="C11" s="20">
         <v>2022</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="11">
         <v>11</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="11">
         <v>18</v>
       </c>
-      <c r="F11" s="11" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
-      </c>
-      <c r="B12" s="14" t="n">
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14">
         <v>28.45</v>
       </c>
-      <c r="C12" s="19" t="n">
+      <c r="C12" s="19">
         <v>2022</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="10">
         <v>1</v>
       </c>
-      <c r="E12" s="10" t="n">
+      <c r="E12" s="10">
         <v>18</v>
       </c>
-      <c r="F12" s="10" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
-      </c>
-      <c r="B13" s="25" t="n">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="25">
         <v>25.73</v>
       </c>
-      <c r="C13" s="20" t="n">
+      <c r="C13" s="20">
         <v>2023</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="11">
         <v>3</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="11">
         <v>20</v>
       </c>
-      <c r="F13" s="11" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="B14" s="14" t="n">
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14">
         <v>23.49</v>
       </c>
-      <c r="C14" s="19" t="n">
+      <c r="C14" s="19">
         <v>2022</v>
       </c>
-      <c r="D14" s="10" t="n">
+      <c r="D14" s="10">
         <v>1</v>
       </c>
-      <c r="E14" s="10" t="n">
+      <c r="E14" s="10">
         <v>13</v>
       </c>
-      <c r="F14" s="10" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
-      </c>
-      <c r="B15" s="25" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="C15" s="20" t="n">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="25">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="C15" s="20">
         <v>2014</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="11">
         <v>1</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="11">
         <v>0</v>
       </c>
-      <c r="F15" s="11" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="34" t="inlineStr">
-        <is>
-          <t>Nota: La temperatura se expresa en grados centígrados. Todas las fechas que aparecen utilizan la referencia horario del Tiempo Universal (UTC),</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cuyo meridiano origen sería el de Greenwich, de manera que para conocer la hora local a la que se refiere un dato, habrá que sumar 1 hora a la </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> hora mostrada si estamos en invierno y 2 horas si estamos en horario de verano. Los datos posteriores a 01-11-2023 son provisionales. *Primera fecha donde se alcanza esta temperatura.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>Fuente: Puertos del Estado. Ministerio de Transporte, Movilidad y Agenda Urbana.</t>
-        </is>
+      <c r="F15" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="15.7109375" customWidth="1" min="1" max="1"/>
-    <col width="12" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="6.140625" customWidth="1" min="3" max="3"/>
-    <col width="4.7109375" customWidth="1" min="4" max="4"/>
-    <col width="5.140625" customWidth="1" min="5" max="5"/>
-    <col width="4.140625" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>4. Mínimos por mes histórico</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="n"/>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="5" t="n"/>
-      <c r="D2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>Mes</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Temperatura</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>Año</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>Día</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>Hora</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
-      </c>
-      <c r="B4" s="14" t="n">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="14">
         <v>13</v>
       </c>
-      <c r="C4" s="19" t="n">
+      <c r="C4" s="19">
         <v>2006</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="10">
         <v>29</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="10">
         <v>9</v>
       </c>
-      <c r="F4" s="10" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="B5" s="25" t="n">
+      <c r="F4" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="25">
         <v>12.6</v>
       </c>
-      <c r="C5" s="20" t="n">
+      <c r="C5" s="20">
         <v>2010</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="11">
         <v>16</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="11">
         <v>10</v>
       </c>
-      <c r="F5" s="11" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="B6" s="14" t="n">
+      <c r="F5" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14">
         <v>12.2</v>
       </c>
-      <c r="C6" s="19" t="n">
+      <c r="C6" s="19">
         <v>2010</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="10">
         <v>16</v>
       </c>
-      <c r="E6" s="10" t="n">
+      <c r="E6" s="10">
         <v>12</v>
       </c>
-      <c r="F6" s="10" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="B7" s="25" t="n">
+      <c r="F6" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="25">
         <v>13.3</v>
       </c>
-      <c r="C7" s="20" t="n">
+      <c r="C7" s="20">
         <v>2013</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="11">
         <v>2</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="11">
         <v>7</v>
       </c>
-      <c r="F7" s="11" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
-      </c>
-      <c r="B8" s="14" t="n">
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
         <v>14.2</v>
       </c>
-      <c r="C8" s="19" t="n">
+      <c r="C8" s="19">
         <v>2013</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="10">
         <v>1</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="10">
         <v>6</v>
       </c>
-      <c r="F8" s="10" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="B9" s="25" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="C9" s="20" t="n">
+      <c r="F8" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="25">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C9" s="20">
         <v>2013</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="11">
         <v>1</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="11">
         <v>3</v>
       </c>
-      <c r="F9" s="11" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="B10" s="14" t="n">
+      <c r="F9" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14">
         <v>22.2</v>
       </c>
-      <c r="C10" s="19" t="n">
+      <c r="C10" s="19">
         <v>2017</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="10">
         <v>1</v>
       </c>
-      <c r="E10" s="10" t="n">
+      <c r="E10" s="10">
         <v>4</v>
       </c>
-      <c r="F10" s="10" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
-      </c>
-      <c r="B11" s="25" t="n">
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25">
         <v>23.85</v>
       </c>
-      <c r="C11" s="20" t="n">
+      <c r="C11" s="20">
         <v>2019</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="11">
         <v>22</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="11">
         <v>5</v>
       </c>
-      <c r="F11" s="11" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
-      </c>
-      <c r="B12" s="14" t="n">
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14">
         <v>21.5</v>
       </c>
-      <c r="C12" s="19" t="n">
+      <c r="C12" s="19">
         <v>2010</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="10">
         <v>27</v>
       </c>
-      <c r="E12" s="10" t="n">
+      <c r="E12" s="10">
         <v>6</v>
       </c>
-      <c r="F12" s="10" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
-      </c>
-      <c r="B13" s="25" t="n">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="25">
         <v>17.22</v>
       </c>
-      <c r="C13" s="20" t="n">
+      <c r="C13" s="20">
         <v>2023</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="11">
         <v>31</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="11">
         <v>18</v>
       </c>
-      <c r="F13" s="11" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="B14" s="14" t="n">
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14">
         <v>15.43</v>
       </c>
-      <c r="C14" s="19" t="n">
+      <c r="C14" s="19">
         <v>2023</v>
       </c>
-      <c r="D14" s="10" t="n">
+      <c r="D14" s="10">
         <v>30</v>
       </c>
-      <c r="E14" s="10" t="n">
+      <c r="E14" s="10">
         <v>21</v>
       </c>
-      <c r="F14" s="10" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
-      </c>
-      <c r="B15" s="25" t="n">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="25">
         <v>14.4</v>
       </c>
-      <c r="C15" s="20" t="n">
+      <c r="C15" s="20">
         <v>2010</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="11">
         <v>30</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="11">
         <v>10</v>
       </c>
-      <c r="F15" s="11" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="34" t="inlineStr">
-        <is>
-          <t>Nota: La temperatura se expresa en grados centígrados. Todas las fechas que aparecen utilizan la referencia horario del Tiempo Universal (UTC),</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cuyo meridiano origen sería el de Greenwich, de manera que para conocer la hora local a la que se refiere un dato, habrá que sumar 1 hora a la </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> hora mostrada si estamos en invierno y 2 horas si estamos en horario de verano. Los datos posteriores a 01-11-2023 son provisionales. *Primera fecha donde se alcanza esta temperatura. </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>Fuente: Puertos del Estado. Ministerio de Transporte, Movilidad y Agenda Urbana.</t>
-        </is>
+      <c r="F15" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="15.7109375" customWidth="1" min="1" max="1"/>
-    <col width="7.5703125" customWidth="1" min="2" max="4"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="4" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>5. Salinidad en la Boya de València. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="n"/>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="5" t="n"/>
-      <c r="D2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>Mes</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>Máximo</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>Mínimo</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
-      </c>
-      <c r="B4" s="14" t="n">
-        <v>38.3556048387097</v>
-      </c>
-      <c r="C4" s="27" t="n">
-        <v>38.41</v>
-      </c>
-      <c r="D4" s="27" t="n">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="14">
+        <v>38.355604838709702</v>
+      </c>
+      <c r="C4" s="27">
+        <v>38.409999999999997</v>
+      </c>
+      <c r="D4" s="27">
         <v>38.24</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="B5" s="13" t="n">
-        <v>38.3568010075567</v>
-      </c>
-      <c r="C5" s="13" t="n">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="13">
+        <v>38.356801007556697</v>
+      </c>
+      <c r="C5" s="13">
         <v>38.39</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="13">
         <v>38.28</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="B6" s="14" t="n">
-        <v>38.3034517766497</v>
-      </c>
-      <c r="C6" s="27" t="n">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14">
+        <v>38.303451776649702</v>
+      </c>
+      <c r="C6" s="27">
         <v>38.33</v>
       </c>
-      <c r="D6" s="27" t="n">
-        <v>38.2</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="B7" s="13" t="n">
-        <v>38.3337083333333</v>
-      </c>
-      <c r="C7" s="13" t="n">
+      <c r="D6" s="27">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="13">
+        <v>38.333708333333298</v>
+      </c>
+      <c r="C7" s="13">
         <v>38.36</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="13">
         <v>38.26</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
-      </c>
-      <c r="B8" s="14" t="n">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
         <v>37.9387634408602</v>
       </c>
-      <c r="C8" s="27" t="n">
+      <c r="C8" s="27">
         <v>38.36</v>
       </c>
-      <c r="D8" s="27" t="n">
-        <v>37.3</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="B9" s="13" t="n">
-        <v>37.3733055555556</v>
-      </c>
-      <c r="C9" s="13" t="n">
-        <v>37.62</v>
-      </c>
-      <c r="D9" s="13" t="n">
+      <c r="D8" s="27">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13">
+        <v>37.373305555555604</v>
+      </c>
+      <c r="C9" s="13">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="D9" s="13">
         <v>37.1</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="B10" s="14" t="n">
-        <v>37.5775100942126</v>
-      </c>
-      <c r="C10" s="27" t="n">
-        <v>37.87</v>
-      </c>
-      <c r="D10" s="27" t="n">
-        <v>37.13</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
-      </c>
-      <c r="B11" s="13" t="n">
-        <v>37.9520564516129</v>
-      </c>
-      <c r="C11" s="13" t="n">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14">
+        <v>37.577510094212599</v>
+      </c>
+      <c r="C10" s="27">
+        <v>37.869999999999997</v>
+      </c>
+      <c r="D10" s="27">
+        <v>37.130000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13">
+        <v>37.952056451612897</v>
+      </c>
+      <c r="C11" s="13">
         <v>38.24</v>
       </c>
-      <c r="D11" s="13" t="n">
-        <v>37.34</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
-      </c>
-      <c r="B12" s="14" t="n">
+      <c r="D11" s="13">
+        <v>37.340000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14">
         <v>37.7086527777778</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="27">
         <v>38.1</v>
       </c>
-      <c r="D12" s="27" t="n">
+      <c r="D12" s="27">
         <v>37.24</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
-      </c>
-      <c r="B13" s="13" t="n">
-        <v>37.4301075268817</v>
-      </c>
-      <c r="C13" s="13" t="n">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="13">
+        <v>37.430107526881699</v>
+      </c>
+      <c r="C13" s="13">
         <v>38.01</v>
       </c>
-      <c r="D13" s="13" t="n">
-        <v>37.02</v>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="B14" s="14" t="n">
-        <v>37.4423333333333</v>
-      </c>
-      <c r="C14" s="27" t="n">
-        <v>38.09</v>
-      </c>
-      <c r="D14" s="27" t="n">
+      <c r="D13" s="13">
+        <v>37.020000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14">
+        <v>37.442333333333302</v>
+      </c>
+      <c r="C14" s="27">
+        <v>38.090000000000003</v>
+      </c>
+      <c r="D14" s="27">
         <v>37.06</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
-      </c>
-      <c r="B15" s="13" t="n">
-        <v>37.8206048387097</v>
-      </c>
-      <c r="C15" s="13" t="n">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13">
+        <v>37.820604838709698</v>
+      </c>
+      <c r="C15" s="13">
         <v>38.25</v>
       </c>
-      <c r="D15" s="13" t="n">
+      <c r="D15" s="13">
         <v>37.18</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="34" t="inlineStr">
-        <is>
-          <t>Nota: La salinidad se mide en unidades prácticas de salinidad (psu). Los datos posteriores a 01-11-2023 son provisionales.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>Fuente: Puertos del Estado. Ministerio de Transporte, Movilidad y Agenda Urbana.</t>
-        </is>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="15.7109375" customWidth="1" min="1" max="1"/>
-    <col width="7.5703125" customWidth="1" min="2" max="4"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="4" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>6. Temperatura del aire a la Boya de València. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="n"/>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="5" t="n"/>
-      <c r="D2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>Mes</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>Máximo</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>Mínimo</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
-      </c>
-      <c r="B4" s="14" t="n">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="14">
         <v>13.3344758064516</v>
       </c>
-      <c r="C4" s="27" t="n">
+      <c r="C4" s="27">
         <v>19.7</v>
       </c>
-      <c r="D4" s="27" t="n">
+      <c r="D4" s="27">
         <v>7.67</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="B5" s="13" t="n">
-        <v>12.3338539042821</v>
-      </c>
-      <c r="C5" s="13" t="n">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="13">
+        <v>12.333853904282099</v>
+      </c>
+      <c r="C5" s="13">
         <v>17.48</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="13">
         <v>9.1</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="B6" s="14" t="n">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14">
         <v>16.411421319797</v>
       </c>
-      <c r="C6" s="27" t="n">
+      <c r="C6" s="27">
         <v>21.56</v>
       </c>
-      <c r="D6" s="27" t="n">
+      <c r="D6" s="27">
         <v>14.31</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="B7" s="13" t="n">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="13">
         <v>16.5258888888889</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="13">
         <v>21.99</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="13">
         <v>13.67</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
-      </c>
-      <c r="B8" s="14" t="n">
-        <v>18.9231048387097</v>
-      </c>
-      <c r="C8" s="27" t="n">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
+        <v>18.923104838709701</v>
+      </c>
+      <c r="C8" s="27">
         <v>22.24</v>
       </c>
-      <c r="D8" s="27" t="n">
+      <c r="D8" s="27">
         <v>15.44</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="B9" s="13" t="n">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13">
         <v>23.2881111111111</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="13">
         <v>27.1</v>
       </c>
-      <c r="D9" s="13" t="n">
+      <c r="D9" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="B10" s="14" t="n">
-        <v>26.8516307277628</v>
-      </c>
-      <c r="C10" s="27" t="n">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14">
+        <v>26.851630727762799</v>
+      </c>
+      <c r="C10" s="27">
         <v>30.39</v>
       </c>
-      <c r="D10" s="27" t="n">
+      <c r="D10" s="27">
         <v>23.35</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
-      </c>
-      <c r="B11" s="13" t="n">
-        <v>27.0510887096774</v>
-      </c>
-      <c r="C11" s="13" t="n">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13">
+        <v>27.051088709677401</v>
+      </c>
+      <c r="C11" s="13">
         <v>30.5</v>
       </c>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="13">
         <v>21.11</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
-      </c>
-      <c r="B12" s="14" t="n">
-        <v>24.9215416666667</v>
-      </c>
-      <c r="C12" s="27" t="n">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14">
+        <v>24.921541666666698</v>
+      </c>
+      <c r="C12" s="27">
         <v>27.79</v>
       </c>
-      <c r="D12" s="27" t="n">
-        <v>19.17</v>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
-      </c>
-      <c r="B13" s="13" t="n">
+      <c r="D12" s="27">
+        <v>19.170000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="13">
         <v>22.4783333333333</v>
       </c>
-      <c r="C13" s="13" t="n">
+      <c r="C13" s="13">
         <v>27.87</v>
       </c>
-      <c r="D13" s="13" t="n">
-        <v>16.69</v>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="B14" s="14" t="n">
+      <c r="D13" s="13">
+        <v>16.690000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14">
         <v>18.1647530864198</v>
       </c>
-      <c r="C14" s="27" t="n">
+      <c r="C14" s="27">
         <v>23.52</v>
       </c>
-      <c r="D14" s="27" t="n">
+      <c r="D14" s="27">
         <v>13.89</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
-      </c>
-      <c r="B15" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C15" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D15" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="34" t="inlineStr">
-        <is>
-          <t>Nota: La temperatura se expresa en grados centígrados. Los datos posteriores a 01-11-2023 son provisionales.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>Fuente: Puertos del Estado. Ministerio de Transporte, Movilidad y Agenda Urbana.</t>
-        </is>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja6">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="15.7109375" customWidth="1" min="1" max="1"/>
-    <col width="12" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" min="3" max="3"/>
-    <col width="4.7109375" customWidth="1" min="4" max="4"/>
-    <col width="5.140625" customWidth="1" min="5" max="5"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>7. Velocidad media de corriente. Máxima por meses. Boya de València. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="n"/>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="5" t="n"/>
-      <c r="D2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>Mes</t>
-        </is>
-      </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>Velocidad media</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>Dirº</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>Día</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>Hora</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
-      </c>
-      <c r="B4" s="35" t="n">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="30">
         <v>39.4</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="10">
         <v>43</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="10">
         <v>16</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="10">
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="B5" s="36" t="n">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="31">
         <v>42.1</v>
       </c>
-      <c r="C5" s="28" t="n">
+      <c r="C5" s="28">
         <v>53</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="11">
         <v>16</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="B6" s="35" t="n">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="30">
         <v>32.4</v>
       </c>
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="10">
         <v>210</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="10">
         <v>27</v>
       </c>
-      <c r="E6" s="10" t="n">
+      <c r="E6" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="B7" s="36" t="n">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="31">
         <v>45.7</v>
       </c>
-      <c r="C7" s="20" t="n">
+      <c r="C7" s="20">
         <v>199</v>
       </c>
-      <c r="D7" s="20" t="n">
+      <c r="D7" s="20">
         <v>2</v>
       </c>
-      <c r="E7" s="20" t="n">
+      <c r="E7" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
-      </c>
-      <c r="B8" s="35" t="n">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30">
         <v>37.1</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="10">
         <v>63</v>
       </c>
-      <c r="D8" s="19" t="n">
+      <c r="D8" s="19">
         <v>4</v>
       </c>
-      <c r="E8" s="19" t="n">
+      <c r="E8" s="19">
         <v>19</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="B9" s="36" t="n">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31">
         <v>48</v>
       </c>
-      <c r="C9" s="28" t="n">
+      <c r="C9" s="28">
         <v>5</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="11">
         <v>30</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="11">
         <v>14</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="B10" s="35" t="n">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="30">
         <v>75.3</v>
       </c>
-      <c r="C10" s="10" t="n">
+      <c r="C10" s="10">
         <v>1</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="10">
         <v>18</v>
       </c>
-      <c r="E10" s="10" t="n">
+      <c r="E10" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
-      </c>
-      <c r="B11" s="36" t="n">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31">
         <v>77.7</v>
       </c>
-      <c r="C11" s="28" t="n">
+      <c r="C11" s="28">
         <v>299</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="11">
         <v>3</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
-      </c>
-      <c r="B12" s="35" t="n">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="30">
         <v>86.7</v>
       </c>
-      <c r="C12" s="10" t="n">
+      <c r="C12" s="10">
         <v>260</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="10">
         <v>4</v>
       </c>
-      <c r="E12" s="10" t="n">
+      <c r="E12" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
-      </c>
-      <c r="B13" s="36" t="n">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="31">
         <v>110.9</v>
       </c>
-      <c r="C13" s="28" t="n">
+      <c r="C13" s="28">
         <v>14</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="11">
         <v>22</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="11">
         <v>16</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="B14" s="35" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="C14" s="10" t="n">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="30">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="C14" s="10">
         <v>118</v>
       </c>
-      <c r="D14" s="10" t="n">
+      <c r="D14" s="10">
         <v>2</v>
       </c>
-      <c r="E14" s="10" t="n">
+      <c r="E14" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
-      </c>
-      <c r="B15" s="36" t="n">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="31">
         <v>82.8</v>
       </c>
-      <c r="C15" s="28" t="n">
+      <c r="C15" s="28">
         <v>100</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="11">
         <v>1</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="11">
         <v>16</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nota: La velocidad media de corriente s'expressa en metros por segundo. Los ángulos representan direcciones de propagación de la corriente. </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="34" t="inlineStr">
-        <is>
-          <t>El criterio de direcciones es N = 0, E = 90, S = 180, W = 270. Todas las fechas que aparecen utilizan la referencia horario del Tiempo Universal (UTC)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cuyo meridiano origen sería el de Greenwich, de manera que para conocer la hora local a la que se refiere un dato, habrá que sumar 1 hora a la hora </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="34" t="inlineStr">
-        <is>
-          <t>mostrada si estamos en invierno y 2 horas si estamos en horario de verano. Los datos posteriores a 01-11-2023 son provisionales.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>Fuente: Puertos del Estado. Ministerio de Transporte, Movilidad y Agenda Urbana.</t>
-        </is>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja7">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="15.7109375" customWidth="1" min="1" max="1"/>
-    <col width="14.5703125" customWidth="1" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" min="3" max="3"/>
-    <col width="10.140625" customWidth="1" min="4" max="4"/>
-    <col width="4.7109375" customWidth="1" min="5" max="5"/>
-    <col width="5.140625" customWidth="1" min="6" max="6"/>
-    <col width="2.7109375" customWidth="1" min="7" max="7"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>8. Altura de ola significante. Máxima por meses. Boya de València. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-      <c r="E1" s="5" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="n"/>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="5" t="n"/>
-      <c r="D2" s="5" t="n"/>
-      <c r="E2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>Mes</t>
-        </is>
-      </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>Altura significante (Hs)</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>Dirº</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>Periodo de Pico (Tp)</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>Día</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="inlineStr">
-        <is>
-          <t>Hora</t>
-        </is>
-      </c>
-      <c r="G3" s="9" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
-      </c>
-      <c r="B4" s="14" t="n">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="14">
         <v>3.34</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="10">
         <v>54</v>
       </c>
-      <c r="D4" s="14" t="n">
+      <c r="D4" s="14">
         <v>9.09</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="10">
         <v>25</v>
       </c>
-      <c r="F4" s="10" t="n">
+      <c r="F4" s="10">
         <v>11</v>
       </c>
-      <c r="G4" s="10" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="B5" s="25" t="n">
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="25">
         <v>4.28</v>
       </c>
-      <c r="C5" s="28" t="n">
+      <c r="C5" s="28">
         <v>46</v>
       </c>
-      <c r="D5" s="25" t="n">
+      <c r="D5" s="25">
         <v>10</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="11">
         <v>6</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="11">
         <v>23</v>
       </c>
-      <c r="G5" s="11" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="B6" s="14" t="n">
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14">
         <v>1.52</v>
       </c>
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="10">
         <v>16</v>
       </c>
-      <c r="D6" s="14" t="n">
+      <c r="D6" s="14">
         <v>5.44</v>
       </c>
-      <c r="E6" s="10" t="n">
+      <c r="E6" s="10">
         <v>27</v>
       </c>
-      <c r="F6" s="10" t="n">
+      <c r="F6" s="10">
         <v>4</v>
       </c>
-      <c r="G6" s="10" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="B7" s="25" t="n">
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="25">
         <v>2.25</v>
       </c>
-      <c r="C7" s="20" t="n">
+      <c r="C7" s="20">
         <v>12</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="13">
         <v>6.07</v>
       </c>
-      <c r="E7" s="20" t="n">
+      <c r="E7" s="20">
         <v>1</v>
       </c>
-      <c r="F7" s="20" t="n">
+      <c r="F7" s="20">
         <v>23</v>
       </c>
-      <c r="G7" s="11" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
-      </c>
-      <c r="B8" s="14" t="n">
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
         <v>1.77</v>
       </c>
-      <c r="C8" s="19" t="n">
+      <c r="C8" s="19">
         <v>57</v>
       </c>
-      <c r="D8" s="14" t="n">
+      <c r="D8" s="14">
         <v>5.33</v>
       </c>
-      <c r="E8" s="19" t="n">
+      <c r="E8" s="19">
         <v>23</v>
       </c>
-      <c r="F8" s="19" t="n">
+      <c r="F8" s="19">
         <v>8</v>
       </c>
-      <c r="G8" s="10" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="B9" s="25" t="n">
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="25">
         <v>1.51</v>
       </c>
-      <c r="C9" s="28" t="n">
+      <c r="C9" s="28">
         <v>47</v>
       </c>
-      <c r="D9" s="25" t="n">
+      <c r="D9" s="25">
         <v>4.83</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="11">
         <v>19</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="11">
         <v>13</v>
       </c>
-      <c r="G9" s="11" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="B10" s="14" t="n">
+      <c r="G9" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14">
         <v>1.51</v>
       </c>
-      <c r="C10" s="10" t="n">
+      <c r="C10" s="10">
         <v>144</v>
       </c>
-      <c r="D10" s="14" t="n">
+      <c r="D10" s="14">
         <v>5.21</v>
       </c>
-      <c r="E10" s="10" t="n">
+      <c r="E10" s="10">
         <v>27</v>
       </c>
-      <c r="F10" s="10" t="n">
+      <c r="F10" s="10">
         <v>23</v>
       </c>
-      <c r="G10" s="10" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
-      </c>
-      <c r="B11" s="25" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="C11" s="28" t="n">
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="C11" s="28">
         <v>29</v>
       </c>
-      <c r="D11" s="25" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="E11" s="11" t="n">
+      <c r="D11" s="25">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="E11" s="11">
         <v>27</v>
       </c>
-      <c r="F11" s="11" t="n">
+      <c r="F11" s="11">
         <v>22</v>
       </c>
-      <c r="G11" s="11" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
-      </c>
-      <c r="B12" s="14" t="n">
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14">
         <v>3.85</v>
       </c>
-      <c r="C12" s="10" t="n">
+      <c r="C12" s="10">
         <v>60</v>
       </c>
-      <c r="D12" s="14" t="n">
+      <c r="D12" s="14">
         <v>8.27</v>
       </c>
-      <c r="E12" s="10" t="n">
+      <c r="E12" s="10">
         <v>3</v>
       </c>
-      <c r="F12" s="10" t="n">
+      <c r="F12" s="10">
         <v>23</v>
       </c>
-      <c r="G12" s="10" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
-      </c>
-      <c r="B13" s="25" t="n">
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="25">
         <v>1.87</v>
       </c>
-      <c r="C13" s="28" t="n">
+      <c r="C13" s="28">
         <v>245</v>
       </c>
-      <c r="D13" s="25" t="n">
+      <c r="D13" s="25">
         <v>5.45</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="11">
         <v>20</v>
       </c>
-      <c r="F13" s="11" t="n">
+      <c r="F13" s="11">
         <v>11</v>
       </c>
-      <c r="G13" s="11" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="B14" s="14" t="n">
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14">
         <v>2.81</v>
       </c>
-      <c r="C14" s="10" t="n">
+      <c r="C14" s="10">
         <v>233</v>
       </c>
-      <c r="D14" s="14" t="n">
+      <c r="D14" s="14">
         <v>5.86</v>
       </c>
-      <c r="E14" s="10" t="n">
+      <c r="E14" s="10">
         <v>2</v>
       </c>
-      <c r="F14" s="10" t="n">
+      <c r="F14" s="10">
         <v>17</v>
       </c>
-      <c r="G14" s="10" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
-      </c>
-      <c r="B15" s="25" t="n">
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="25">
         <v>1.64</v>
       </c>
-      <c r="C15" s="28" t="n">
+      <c r="C15" s="28">
         <v>240</v>
       </c>
-      <c r="D15" s="25" t="n">
+      <c r="D15" s="25">
         <v>5.08</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="11">
         <v>1</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="11">
         <v>16</v>
       </c>
-      <c r="G15" s="11" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nota: La altura significante s'expressa en metros y el periodo de pico en segundos. Los ángulos representan direcciones de propagación del oleaje. </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="34" t="inlineStr">
-        <is>
-          <t>El criterio de direcciones es N = 0, E = 90, S = 180, W = 270. Todas las fechas que aparecen utilizan la referencia horario del Tiempo Universal (UTC)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cuyo meridiano origen sería el de Greenwich, de manera que para conocer la hora local a la que se refiere un dato, habrá que sumar 1 hora a la hora </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="34" t="inlineStr">
-        <is>
-          <t>mostrada si estamos en invierno y 2 horas si estamos en horario de verano.  Los datos posteriores a 01-11-2023 son provisionales. *Primera fecha donde se alcanza esta altura.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>Fuente: Puertos del Estado. Ministerio de Transporte, Movilidad y Agenda Urbana.</t>
-        </is>
+      <c r="G15" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>